--- a/Grade6/SO/History/SO word.xlsx
+++ b/Grade6/SO/History/SO word.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ericsson-my.sharepoint.com/personal/jing_j_yu_ericsson_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\Grade6\SO\History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC1048F231587AC45BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF5E735F-D515-4251-B509-2808BE9E9667}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B524F68D-5A21-4B25-AAE8-80FFA750A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="439">
   <si>
     <t>工作纸 5:5</t>
   </si>
@@ -1009,6 +1009,357 @@
   </si>
   <si>
     <t>付费</t>
+  </si>
+  <si>
+    <t>myndigheterna</t>
+  </si>
+  <si>
+    <t>skällsordet</t>
+  </si>
+  <si>
+    <t>loshultskuppen</t>
+  </si>
+  <si>
+    <t>skuppen</t>
+  </si>
+  <si>
+    <t>konsekvenserna</t>
+  </si>
+  <si>
+    <t>anhöriga</t>
+  </si>
+  <si>
+    <t>vittnesmål</t>
+  </si>
+  <si>
+    <t>vetenskapen</t>
+  </si>
+  <si>
+    <t>utmanar</t>
+  </si>
+  <si>
+    <t>trolldomskommision</t>
+  </si>
+  <si>
+    <t>tillsätts</t>
+  </si>
+  <si>
+    <t>oknytt</t>
+  </si>
+  <si>
+    <t>tidens tro drabbar människan</t>
+  </si>
+  <si>
+    <t>utpekade</t>
+  </si>
+  <si>
+    <t>utpekandet</t>
+  </si>
+  <si>
+    <t>visgossarna</t>
+  </si>
+  <si>
+    <t>försent</t>
+  </si>
+  <si>
+    <t>eldsvådan</t>
+  </si>
+  <si>
+    <t>upptäcktes</t>
+  </si>
+  <si>
+    <t>wrangelska</t>
+  </si>
+  <si>
+    <t>höckert</t>
+  </si>
+  <si>
+    <t>ärvde</t>
+  </si>
+  <si>
+    <t>myndigförklarad</t>
+  </si>
+  <si>
+    <t>utsedd</t>
+  </si>
+  <si>
+    <t>våldsam</t>
+  </si>
+  <si>
+    <t>den polske kungen</t>
+  </si>
+  <si>
+    <t>framgångsrik</t>
+  </si>
+  <si>
+    <t>ryssarna</t>
+  </si>
+  <si>
+    <t>vintern</t>
+  </si>
+  <si>
+    <t>fryser ihjäl</t>
+  </si>
+  <si>
+    <t>erövra</t>
+  </si>
+  <si>
+    <t>skyttergrav</t>
+  </si>
+  <si>
+    <t>fästningen</t>
+  </si>
+  <si>
+    <t>smäll</t>
+  </si>
+  <si>
+    <t>tillhörande rossel</t>
+  </si>
+  <si>
+    <t>kant</t>
+  </si>
+  <si>
+    <t>stupat</t>
+  </si>
+  <si>
+    <t>härjade</t>
+  </si>
+  <si>
+    <t>anfalla</t>
+  </si>
+  <si>
+    <t>erövring</t>
+  </si>
+  <si>
+    <t>utfattigt</t>
+  </si>
+  <si>
+    <t>当局</t>
+  </si>
+  <si>
+    <t>脏话</t>
+  </si>
+  <si>
+    <t>洛舒尔特政变</t>
+  </si>
+  <si>
+    <t>政变</t>
+  </si>
+  <si>
+    <t>后果</t>
+  </si>
+  <si>
+    <t>亲属</t>
+  </si>
+  <si>
+    <t>证词</t>
+  </si>
+  <si>
+    <t>挑战</t>
+  </si>
+  <si>
+    <t>巫术委员会</t>
+  </si>
+  <si>
+    <t>被任命</t>
+  </si>
+  <si>
+    <t>闻所未闻</t>
+  </si>
+  <si>
+    <t>时代信仰影响人类</t>
+  </si>
+  <si>
+    <t>单挑</t>
+  </si>
+  <si>
+    <t>智者</t>
+  </si>
+  <si>
+    <t>为时已晚</t>
+  </si>
+  <si>
+    <t>大火</t>
+  </si>
+  <si>
+    <t>被发现</t>
+  </si>
+  <si>
+    <t>驼背</t>
+  </si>
+  <si>
+    <t>宣布成年</t>
+  </si>
+  <si>
+    <t>任命</t>
+  </si>
+  <si>
+    <t>暴力</t>
+  </si>
+  <si>
+    <t>波兰国王</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>俄国人</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>冻死</t>
+  </si>
+  <si>
+    <t>征服</t>
+  </si>
+  <si>
+    <t>战壕</t>
+  </si>
+  <si>
+    <t>要塞</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>相关响声</t>
+  </si>
+  <si>
+    <t>边缘</t>
+  </si>
+  <si>
+    <t>沦陷</t>
+  </si>
+  <si>
+    <t>蹂躏</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>穷困</t>
+  </si>
+  <si>
+    <t>the authorities</t>
+  </si>
+  <si>
+    <t>the swear word</t>
+  </si>
+  <si>
+    <t>loshult coup</t>
+  </si>
+  <si>
+    <t>the coup</t>
+  </si>
+  <si>
+    <t>consequences</t>
+  </si>
+  <si>
+    <t>relatives</t>
+  </si>
+  <si>
+    <t>testimony</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>witchcraft commission</t>
+  </si>
+  <si>
+    <t>is appointed</t>
+  </si>
+  <si>
+    <t>unheard of</t>
+  </si>
+  <si>
+    <t>The faith of time affects mankind</t>
+  </si>
+  <si>
+    <t>singled out</t>
+  </si>
+  <si>
+    <t>the singling out</t>
+  </si>
+  <si>
+    <t>the wise men</t>
+  </si>
+  <si>
+    <t>too late</t>
+  </si>
+  <si>
+    <t>the conflagration</t>
+  </si>
+  <si>
+    <t>was discovered</t>
+  </si>
+  <si>
+    <t>Wrangelska</t>
+  </si>
+  <si>
+    <t>inherited</t>
+  </si>
+  <si>
+    <t>declared of age</t>
+  </si>
+  <si>
+    <t>appointed</t>
+  </si>
+  <si>
+    <t>violent</t>
+  </si>
+  <si>
+    <t>the Polish king</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>the Russians</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>freeze to death</t>
+  </si>
+  <si>
+    <t>conquer</t>
+  </si>
+  <si>
+    <t>trench</t>
+  </si>
+  <si>
+    <t>fortress</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>associated rattle</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>ravaged</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>conquest</t>
+  </si>
+  <si>
+    <t>destitute</t>
+  </si>
+  <si>
+    <t>Translated with DeepL.com (free version)</t>
   </si>
 </sst>
 </file>
@@ -1686,6 +2037,59 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -1698,59 +2102,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2026,6 +2377,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
@@ -2035,36 +2416,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2288,6 +2639,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -2295,30 +2670,6 @@
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2672,6 +3023,48 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
@@ -2681,48 +3074,6 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3232,6 +3583,72 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="A75:C75"/>
@@ -3241,72 +3658,6 @@
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3608,6 +3959,42 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
@@ -3615,42 +4002,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3822,16 +4173,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -3839,12 +4186,16 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3852,13 +4203,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD0B6C6-F731-4973-8B4D-86C6E27C5441}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -4146,6 +4502,462 @@
         <v>321</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" t="s">
+        <v>403</v>
+      </c>
+      <c r="C31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" t="s">
+        <v>404</v>
+      </c>
+      <c r="C32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" t="s">
+        <v>405</v>
+      </c>
+      <c r="C33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" t="s">
+        <v>408</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" t="s">
+        <v>410</v>
+      </c>
+      <c r="C39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" t="s">
+        <v>411</v>
+      </c>
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B43" t="s">
+        <v>414</v>
+      </c>
+      <c r="C43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45" t="s">
+        <v>416</v>
+      </c>
+      <c r="C45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>341</v>
+      </c>
+      <c r="B46" t="s">
+        <v>417</v>
+      </c>
+      <c r="C46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" t="s">
+        <v>418</v>
+      </c>
+      <c r="C48" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50" t="s">
+        <v>420</v>
+      </c>
+      <c r="C50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" t="s">
+        <v>421</v>
+      </c>
+      <c r="C51" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A52" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>348</v>
+      </c>
+      <c r="B53" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54" t="s">
+        <v>424</v>
+      </c>
+      <c r="C54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A55" t="s">
+        <v>350</v>
+      </c>
+      <c r="B55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A56" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
+        <v>352</v>
+      </c>
+      <c r="B57" t="s">
+        <v>427</v>
+      </c>
+      <c r="C57" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A58" t="s">
+        <v>353</v>
+      </c>
+      <c r="B58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C58" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A59" t="s">
+        <v>354</v>
+      </c>
+      <c r="B59" t="s">
+        <v>429</v>
+      </c>
+      <c r="C59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A60" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
+        <v>356</v>
+      </c>
+      <c r="B61" t="s">
+        <v>431</v>
+      </c>
+      <c r="C61" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
+        <v>357</v>
+      </c>
+      <c r="B62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C62" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B63" t="s">
+        <v>433</v>
+      </c>
+      <c r="C63" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A64" t="s">
+        <v>359</v>
+      </c>
+      <c r="B64" t="s">
+        <v>434</v>
+      </c>
+      <c r="C64" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B65" t="s">
+        <v>435</v>
+      </c>
+      <c r="C65" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A66" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" t="s">
+        <v>436</v>
+      </c>
+      <c r="C66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A67" t="s">
+        <v>362</v>
+      </c>
+      <c r="B67" t="s">
+        <v>437</v>
+      </c>
+      <c r="C67" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B69" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Grade6/SO/History/SO word.xlsx
+++ b/Grade6/SO/History/SO word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NO5\Grade6\SO\History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B0B00-682B-44C2-AC6C-33DC3E92DEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D263E64F-A5C9-4CE5-AE11-3295DF6C025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="Sheet8" sheetId="21" r:id="rId1"/>
     <sheet name="Sheet9" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
